--- a/Datos_inicio1.xlsx
+++ b/Datos_inicio1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drones\Documents\Distribucion P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mjseguridad-my.sharepoint.com/personal/tania_cajal_seguridad_sv/Documents/Documentos/demo 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1EA904-61D3-4889-A53C-D467CCDD62B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0C1EA904-61D3-4889-A53C-D467CCDD62B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F40832E9-6885-45F2-80F5-C2444BF3489B}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{16A80114-AD5F-4A3A-930C-B8FB5DD830B4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16A80114-AD5F-4A3A-930C-B8FB5DD830B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadrantes" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="33">
   <si>
     <t>Cuarteles</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Id_Medio</t>
-  </si>
-  <si>
-    <t>Id_Cuadrante</t>
   </si>
   <si>
     <t>Rango</t>
@@ -120,15 +117,45 @@
   <si>
     <t>Asignacion_Cuadrante_T4</t>
   </si>
+  <si>
+    <t>SSC-12.01</t>
+  </si>
+  <si>
+    <t>SSC-12.02</t>
+  </si>
+  <si>
+    <t>SSC-12.03</t>
+  </si>
+  <si>
+    <t>SSC-12.04</t>
+  </si>
+  <si>
+    <t>SSC-12.05</t>
+  </si>
+  <si>
+    <t>SSC-12.06</t>
+  </si>
+  <si>
+    <t>SSC-12.07</t>
+  </si>
+  <si>
+    <t>Cuadrante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -510,18 +537,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA78DB23-1DCA-40E4-B18C-488399A6209B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -536,9 +563,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0.88</v>
@@ -553,9 +580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0.88</v>
@@ -570,9 +597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -587,9 +614,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -604,9 +631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -621,9 +648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0.6</v>
@@ -638,9 +665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -656,6 +683,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -664,16 +692,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450D90C-B30E-4D82-B0DF-95DDB78778F4}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -684,19 +712,19 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -719,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -742,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -765,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -788,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -811,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -834,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -857,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -880,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -903,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -926,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -949,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -972,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1008,46 +1036,46 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100000</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1065,15 +1093,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1091,15 +1119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1117,15 +1145,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1143,15 +1171,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1169,15 +1197,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100005</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1195,15 +1223,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100006</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1221,15 +1249,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100007</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1247,15 +1275,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1273,15 +1301,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1299,15 +1327,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100010</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1325,15 +1353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100011</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1351,15 +1379,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100012</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1377,15 +1405,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>100013</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1403,15 +1431,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>100014</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1429,15 +1457,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>100015</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1455,18 +1483,18 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100016</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1484,15 +1512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>100017</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1510,15 +1538,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100018</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1536,15 +1564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>100019</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1562,15 +1590,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>100020</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1588,15 +1616,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>100021</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1614,15 +1642,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>100022</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1640,15 +1668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>100023</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1666,15 +1694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100024</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1692,15 +1720,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>100025</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1718,15 +1746,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>100026</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1744,15 +1772,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>100027</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1770,15 +1798,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100028</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1796,15 +1824,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>100029</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1822,15 +1850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>100030</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1848,15 +1876,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>100031</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1874,15 +1902,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>100032</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1900,15 +1928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>100033</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1926,15 +1954,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>100034</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1952,15 +1980,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>100035</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1978,15 +2006,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>100036</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2004,15 +2032,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>100037</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2030,15 +2058,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>100038</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2056,15 +2084,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>100039</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2082,15 +2110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>100040</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2108,15 +2136,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>100041</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2134,15 +2162,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>100042</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2160,15 +2188,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>100043</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2186,15 +2214,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>100044</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2212,15 +2240,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>100045</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2238,15 +2266,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>100046</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2264,15 +2292,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>100047</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2290,15 +2318,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>100048</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2316,15 +2344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>100049</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2342,15 +2370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100050</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2368,15 +2396,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>100051</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2394,15 +2422,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>100052</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2420,15 +2448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>100053</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2446,15 +2474,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>100054</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2472,15 +2500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>100055</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2498,15 +2526,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>100056</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2524,15 +2552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>100057</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2550,15 +2578,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>100058</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2576,15 +2604,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>100059</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2602,15 +2630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>100060</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2628,15 +2656,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>100061</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2654,15 +2682,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>100062</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2680,15 +2708,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>100063</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2706,15 +2734,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>100064</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2732,15 +2760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>100065</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2758,15 +2786,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>100066</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2784,15 +2812,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>100067</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2810,15 +2838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>100068</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2836,12 +2864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>100069</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71">
         <v>911</v>
@@ -2862,12 +2890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>100070</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72">
         <v>911</v>
@@ -2888,12 +2916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>100071</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>911</v>
@@ -2914,12 +2942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>100072</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>911</v>
@@ -2940,12 +2968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>100073</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75">
         <v>911</v>
@@ -2966,12 +2994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>100074</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>911</v>
@@ -2992,12 +3020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>100075</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <v>911</v>
@@ -3018,12 +3046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100076</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>911</v>
@@ -3044,12 +3072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>100077</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <v>911</v>
@@ -3070,12 +3098,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>100078</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>911</v>
@@ -3096,12 +3124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>100079</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>911</v>
@@ -3122,12 +3150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>100080</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>911</v>
@@ -3148,12 +3176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>100081</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83">
         <v>911</v>
@@ -3174,12 +3202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>100082</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84">
         <v>911</v>
@@ -3200,12 +3228,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>100083</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>911</v>
@@ -3226,12 +3254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>100084</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86">
         <v>911</v>
@@ -3252,12 +3280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>100085</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <v>911</v>
@@ -3278,12 +3306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>100086</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>911</v>
@@ -3304,12 +3332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>100087</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89">
         <v>911</v>
@@ -3330,12 +3358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>100088</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90">
         <v>911</v>
@@ -3356,12 +3384,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>100089</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C91">
         <v>911</v>
@@ -3382,12 +3410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>100090</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92">
         <v>911</v>
@@ -3408,12 +3436,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>100091</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>911</v>
@@ -3434,12 +3462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>100092</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94">
         <v>911</v>
@@ -3460,12 +3488,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>100093</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <v>911</v>
@@ -3486,12 +3514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>100094</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <v>911</v>
@@ -3512,12 +3540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>100095</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97">
         <v>911</v>
@@ -3538,12 +3566,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>100096</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98">
         <v>911</v>
@@ -3564,12 +3592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>100097</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99">
         <v>911</v>
@@ -3590,12 +3618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100098</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100">
         <v>911</v>
@@ -3616,12 +3644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100099</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101">
         <v>911</v>
@@ -3642,12 +3670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100100</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>911</v>
@@ -3668,12 +3696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100101</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>911</v>
@@ -3694,12 +3722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>100102</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <v>911</v>
@@ -3720,12 +3748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>100103</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>911</v>
@@ -3746,12 +3774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>100104</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106">
         <v>911</v>
@@ -3772,12 +3800,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>100105</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107">
         <v>911</v>
@@ -3798,12 +3826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>100106</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>911</v>
@@ -3824,12 +3852,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>100107</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109">
         <v>911</v>
@@ -3850,12 +3878,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>100108</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110">
         <v>911</v>
@@ -3876,12 +3904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>100109</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111">
         <v>911</v>
@@ -3902,12 +3930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>100110</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112">
         <v>911</v>
@@ -3928,12 +3956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>100111</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113">
         <v>911</v>
@@ -3954,12 +3982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>100112</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114">
         <v>911</v>
@@ -3980,12 +4008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>100113</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115">
         <v>911</v>
@@ -4006,12 +4034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>100114</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116">
         <v>911</v>
@@ -4032,12 +4060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>100115</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117">
         <v>911</v>
@@ -4058,12 +4086,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>100116</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118">
         <v>911</v>
@@ -4084,12 +4112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>100117</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119">
         <v>911</v>
@@ -4110,12 +4138,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>100118</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120">
         <v>911</v>
@@ -4136,12 +4164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>100119</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121">
         <v>911</v>
@@ -4162,12 +4190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>100120</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122">
         <v>911</v>
@@ -4188,12 +4216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>100121</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123">
         <v>911</v>
@@ -4214,12 +4242,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>100122</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124">
         <v>911</v>
@@ -4240,12 +4268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>100123</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125">
         <v>911</v>
@@ -4266,12 +4294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>100124</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126">
         <v>911</v>
@@ -4292,12 +4320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100125</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127">
         <v>911</v>
@@ -4318,12 +4346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>100126</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128">
         <v>911</v>
@@ -4344,12 +4372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>100127</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129">
         <v>911</v>
@@ -4370,12 +4398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>100128</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130">
         <v>911</v>
@@ -4396,12 +4424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>100129</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131">
         <v>911</v>
@@ -4422,12 +4450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>100130</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132">
         <v>911</v>
@@ -4448,12 +4476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>100131</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C133">
         <v>911</v>
@@ -4474,12 +4502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>100132</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C134">
         <v>911</v>
@@ -4500,12 +4528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>100133</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C135">
         <v>911</v>
@@ -4526,12 +4554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>100134</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C136">
         <v>911</v>
@@ -4552,12 +4580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>100135</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C137">
         <v>911</v>
@@ -4578,12 +4606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>100136</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138">
         <v>911</v>
@@ -4604,12 +4632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>100137</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C139">
         <v>911</v>
@@ -4630,12 +4658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>100138</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C140">
         <v>911</v>
@@ -4656,12 +4684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>100139</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C141">
         <v>911</v>
@@ -4682,12 +4710,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>100140</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C142">
         <v>911</v>
@@ -4708,12 +4736,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>100141</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C143">
         <v>911</v>
@@ -4734,12 +4762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>100142</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C144">
         <v>911</v>
@@ -4760,12 +4788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>100143</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145">
         <v>911</v>
@@ -4786,12 +4814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>100144</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146">
         <v>911</v>
@@ -4812,12 +4840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>100145</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C147">
         <v>911</v>
@@ -4838,12 +4866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>100146</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C148">
         <v>911</v>
@@ -4864,12 +4892,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>100147</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C149">
         <v>911</v>
@@ -4890,12 +4918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>100148</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C150">
         <v>911</v>
